--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -32,7 +32,7 @@
     <x:t>Contexts:</x:t>
   </x:si>
   <x:si>
-    <x:t>ja-JP,en-US</x:t>
+    <x:t>default,en-US</x:t>
   </x:si>
   <x:si>
     <x:t>ColumnName:</x:t>
@@ -62,7 +62,7 @@
     <x:t>Context:</x:t>
   </x:si>
   <x:si>
-    <x:t>ja-JP</x:t>
+    <x:t>default</x:t>
   </x:si>
   <x:si>
     <x:t>en-US</x:t>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:loext="http://schemas.libreoffice.org/" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="Calc"/>
-  <x:workbookPr showObjects="all" backupFile="false" codeName="ThisWorkbook"/>
-  <x:workbookProtection/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
-    <x:workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="ExampleLocalize" sheetId="1" r:id="rId2"/>
+    <x:sheet name="ExampleLocalize" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
-  <x:extLst>
-    <x:ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </x:ext>
-  </x:extLst>
+  <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <x:si>
     <x:t>ClassName:</x:t>
   </x:si>
@@ -54,9 +47,6 @@
   </x:si>
   <x:si>
     <x:t>yes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>no</x:t>
   </x:si>
   <x:si>
     <x:t>Context:</x:t>
@@ -73,40 +63,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
-    <x:numFmt numFmtId="164" formatCode="General"/>
+    <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="5">
+  <x:fonts count="1">
     <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="游ゴシック"/>
-      <x:family val="2"/>
-      <x:charset val="128"/>
-    </x:font>
-    <x:font>
-      <x:sz val="10"/>
-      <x:name val="Arial"/>
-      <x:family val="0"/>
-      <x:charset val="128"/>
-    </x:font>
-    <x:font>
-      <x:sz val="10"/>
-      <x:name val="Arial"/>
-      <x:family val="0"/>
-      <x:charset val="128"/>
-    </x:font>
-    <x:font>
-      <x:sz val="10"/>
-      <x:name val="Arial"/>
-      <x:family val="0"/>
-      <x:charset val="128"/>
-    </x:font>
-    <x:font>
+      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
-      <x:charset val="1"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">
@@ -119,168 +84,61 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFADFF2F"/>
-        <x:bgColor rgb="FFFFFF00"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF7FFFD4"/>
-        <x:bgColor rgb="FF99CCFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="false" diagonalDown="false">
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="9">
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <x:protection locked="true" hidden="false"/>
-    </x:xf>
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="6">
+  <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <x:cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <x:cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <x:cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <x:cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <x:cellStyle name="Percent" xfId="19" builtinId="5"/>
   </x:cellStyles>
-  <x:colors>
-    <x:indexedColors>
-      <x:rgbColor rgb="FF000000"/>
-      <x:rgbColor rgb="FFFFFFFF"/>
-      <x:rgbColor rgb="FFFF0000"/>
-      <x:rgbColor rgb="FF00FF00"/>
-      <x:rgbColor rgb="FF0000FF"/>
-      <x:rgbColor rgb="FFFFFF00"/>
-      <x:rgbColor rgb="FFFF00FF"/>
-      <x:rgbColor rgb="FF00FFFF"/>
-      <x:rgbColor rgb="FF800000"/>
-      <x:rgbColor rgb="FF008000"/>
-      <x:rgbColor rgb="FF000080"/>
-      <x:rgbColor rgb="FF808000"/>
-      <x:rgbColor rgb="FF800080"/>
-      <x:rgbColor rgb="FF008080"/>
-      <x:rgbColor rgb="FFC0C0C0"/>
-      <x:rgbColor rgb="FF808080"/>
-      <x:rgbColor rgb="FF9999FF"/>
-      <x:rgbColor rgb="FF993366"/>
-      <x:rgbColor rgb="FFFFFFCC"/>
-      <x:rgbColor rgb="FFCCFFFF"/>
-      <x:rgbColor rgb="FF660066"/>
-      <x:rgbColor rgb="FFFF8080"/>
-      <x:rgbColor rgb="FF0066CC"/>
-      <x:rgbColor rgb="FFCCCCFF"/>
-      <x:rgbColor rgb="FF000080"/>
-      <x:rgbColor rgb="FFFF00FF"/>
-      <x:rgbColor rgb="FFFFFF00"/>
-      <x:rgbColor rgb="FF00FFFF"/>
-      <x:rgbColor rgb="FF800080"/>
-      <x:rgbColor rgb="FF800000"/>
-      <x:rgbColor rgb="FF008080"/>
-      <x:rgbColor rgb="FF0000FF"/>
-      <x:rgbColor rgb="FF00CCFF"/>
-      <x:rgbColor rgb="FFCCFFFF"/>
-      <x:rgbColor rgb="FF7FFFD4"/>
-      <x:rgbColor rgb="FFFFFF99"/>
-      <x:rgbColor rgb="FF99CCFF"/>
-      <x:rgbColor rgb="FFFF99CC"/>
-      <x:rgbColor rgb="FFCC99FF"/>
-      <x:rgbColor rgb="FFFFCC99"/>
-      <x:rgbColor rgb="FF3366FF"/>
-      <x:rgbColor rgb="FF33CCCC"/>
-      <x:rgbColor rgb="FFADFF2F"/>
-      <x:rgbColor rgb="FFFFCC00"/>
-      <x:rgbColor rgb="FFFF9900"/>
-      <x:rgbColor rgb="FFFF6600"/>
-      <x:rgbColor rgb="FF666699"/>
-      <x:rgbColor rgb="FF969696"/>
-      <x:rgbColor rgb="FF003366"/>
-      <x:rgbColor rgb="FF339966"/>
-      <x:rgbColor rgb="FF003300"/>
-      <x:rgbColor rgb="FF333300"/>
-      <x:rgbColor rgb="FF993300"/>
-      <x:rgbColor rgb="FF993366"/>
-      <x:rgbColor rgb="FF333399"/>
-      <x:rgbColor rgb="FF333333"/>
-    </x:indexedColors>
-  </x:colors>
 </x:styleSheet>
 </file>
 
@@ -568,103 +426,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr filterMode="false">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
-    <x:pageSetUpPr fitToPage="false"/>
   </x:sheetPr>
-  <x:dimension ref="B2:E9"/>
+  <x:dimension ref="A1:E10"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" defaultGridColor="true" colorId="64" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozenSplit"/>
-      <x:selection activeCell="G12" sqref="G12"/>
-      <x:selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="20.710625" defaultRowHeight="15" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="20.710625" defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="2.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="7" width="20.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="5" width="20.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="B2" s="6" t="s">
+    <x:row r="2" spans="1:5">
+      <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="6" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="B3" s="6" t="s">
+    <x:row r="3" spans="1:5">
+      <x:c r="B3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="6" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="B6" s="7" t="s">
+    <x:row r="6" spans="1:5">
+      <x:c r="B6" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C6" s="7" t="s">
+      <x:c r="C6" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D6" s="7" t="s">
+      <x:c r="D6" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E6" s="7" t="s">
+      <x:c r="E6" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="B7" s="6" t="s">
+    <x:row r="7" spans="1:5">
+      <x:c r="B7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C7" s="6" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D7" s="6" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E7" s="6" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="B8" s="6" t="s">
+    <x:row r="8" spans="1:5">
+      <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C8" s="6" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D8" s="6" t="s">
+      <x:c r="D8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="B9" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E8" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7" ht="15" customHeight="1" outlineLevel="0">
-      <x:c r="B9" s="8" t="s">
+      <x:c r="C9" s="2" t="s"/>
+      <x:c r="D9" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C9" s="8" t="s"/>
-      <x:c r="D9" s="8" t="s">
+      <x:c r="E9" s="2" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="E9" s="8" t="s">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="true"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <x:headerFooter differentOddEven="false" differentFirst="false">
-    <x:oddHeader/>
-    <x:oddFooter/>
-  </x:headerFooter>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -433,7 +433,7 @@
   <x:dimension ref="A1:E10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozenSplit"/>
+      <x:pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozenSplit"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="20.710625" defaultRowHeight="15"/>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="15">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -119,6 +119,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.4375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.4375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.4375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="0.78125" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="C3" t="s">

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="15">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -122,9 +122,8 @@
   <cols>
     <col min="3" max="3" width="15.625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23.4375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.4375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.4375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="0.78125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.4375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.4375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3">

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="15">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -73,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,8 +90,160 @@
         <bgColor indexed="49"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="64"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -99,18 +251,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <diagonal/>
+    </border>
+    <border>
+      <right/>
+      <top/>
+      <diagonal/>
+    </border>
+    <border>
+      <top/>
+      <diagonal/>
+    </border>
+    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <sheetPr published="1" enableFormatConditionsCalculation="1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0">
@@ -143,16 +412,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -185,16 +454,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -205,5 +474,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="default"/>
+  <headerFooter differentOddEven="1" differentFirst="1"/>
 </worksheet>
 </file>
--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -11,8 +11,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0">
+      <text>
+        <t xml:space="preserve">empty description</t>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <t xml:space="preserve">empty description</t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0">
+      <text>
+        <t xml:space="preserve">empty description</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="15">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -375,6 +400,10 @@
     </xf>
   </cellXfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,5 +505,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="default"/>
   <headerFooter differentOddEven="1" differentFirst="1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="15">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="15">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="15">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="16">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve">en-US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version:</t>
   </si>
 </sst>
 </file>
@@ -424,6 +427,14 @@
     <col min="6" max="6" width="23.4375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+    </row>
     <row r="3">
       <c r="C3" t="s">
         <v>0</v>

--- a/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
+++ b/Assets/Examples/MasterBuilder/Resources/Masters/Master.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="17">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">Version:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
